--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiru\Documents\GitHub\desktop-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44DA42E2-D0FE-4428-BC2F-B4DC5BCD4C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4B4862-E333-4477-9516-325476A0528B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="5" xr2:uid="{CB902509-3341-4FF0-BD31-B6D52E2DBCED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" firstSheet="5" activeTab="7" xr2:uid="{CB902509-3341-4FF0-BD31-B6D52E2DBCED}"/>
   </bookViews>
   <sheets>
     <sheet name="FLOWER_P1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Viper_P2" sheetId="4" r:id="rId4"/>
     <sheet name="face_P1" sheetId="5" r:id="rId5"/>
     <sheet name="face_P2" sheetId="6" r:id="rId6"/>
+    <sheet name="Adiss_P1" sheetId="7" r:id="rId7"/>
+    <sheet name="Adiss_P2" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>flower-to-flower P1</t>
   </si>
@@ -67,18 +69,30 @@
   <si>
     <t>RC+TD</t>
   </si>
+  <si>
+    <t>Adiss_P2</t>
+  </si>
+  <si>
+    <t>Adiss_P1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,13 +111,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2209,6 +2242,668 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Adiss_P1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Adiss_P1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num of peoples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Adiss_P1!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RC+TD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Adiss_P1!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5585-4675-8A6D-177B3D088B23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="497956224"/>
+        <c:axId val="497957536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="497956224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497957536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497957536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="497956224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Adiss_P2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Adiss_P2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num of peoples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Adiss_P2!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RC+TD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Adiss_P2!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5562-4D67-B14A-CAB43B39FE0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="403160600"/>
+        <c:axId val="403161584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="403160600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403161584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="403161584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="403160600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2449,6 +3144,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5463,6 +6238,1054 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5693,6 +7516,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845C09DF-8DD7-440F-8886-C37FCD06D41F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2DE3395-716C-45CC-9962-DD48D348CCD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7689F2A8-EA74-4C96-97FF-54AC3F6CAC26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6263,8 +8168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3B7A82-EF28-48AA-B322-D51BF93B18CB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6300,4 +8205,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD06DCBD-9668-4FAD-985B-B7201A3DE2CD}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677C7051-D8C8-4050-B621-BF2078A9EB46}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>